--- a/data/pca/factorExposure/factorExposure_2012-03-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-03-30.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01677396592080664</v>
+        <v>-0.01675377383003527</v>
       </c>
       <c r="C2">
-        <v>-0.0351461157664618</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.02894394337138053</v>
+      </c>
+      <c r="D2">
+        <v>0.0001250693828104441</v>
+      </c>
+      <c r="E2">
+        <v>0.00916415795897774</v>
+      </c>
+      <c r="F2">
+        <v>0.008060464432101863</v>
+      </c>
+      <c r="G2">
+        <v>-0.007401965428742477</v>
+      </c>
+      <c r="H2">
+        <v>-0.05912271205749946</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07477472905116063</v>
+        <v>-0.08840992715313824</v>
       </c>
       <c r="C4">
-        <v>-0.05423524555607081</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.03820320455804669</v>
+      </c>
+      <c r="D4">
+        <v>0.06590609696063997</v>
+      </c>
+      <c r="E4">
+        <v>0.01774047466641928</v>
+      </c>
+      <c r="F4">
+        <v>0.02737105781677187</v>
+      </c>
+      <c r="G4">
+        <v>-0.005600759048660473</v>
+      </c>
+      <c r="H4">
+        <v>0.04146417991546913</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1076452524875426</v>
+        <v>-0.1198303416162055</v>
       </c>
       <c r="C6">
-        <v>-0.05607266960808002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.03359207988052811</v>
+      </c>
+      <c r="D6">
+        <v>0.0086977393075863</v>
+      </c>
+      <c r="E6">
+        <v>-0.003487365716730445</v>
+      </c>
+      <c r="F6">
+        <v>0.06402809459764211</v>
+      </c>
+      <c r="G6">
+        <v>-0.03140741186666037</v>
+      </c>
+      <c r="H6">
+        <v>-0.09738536390590916</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04902684266657108</v>
+        <v>-0.06474038951457371</v>
       </c>
       <c r="C7">
-        <v>-0.02732529430312118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.0189906061825548</v>
+      </c>
+      <c r="D7">
+        <v>0.04559070346886007</v>
+      </c>
+      <c r="E7">
+        <v>0.04067997767582507</v>
+      </c>
+      <c r="F7">
+        <v>0.03132009247237712</v>
+      </c>
+      <c r="G7">
+        <v>0.04243735025998448</v>
+      </c>
+      <c r="H7">
+        <v>0.01834158896135967</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03752623934563837</v>
+        <v>-0.04116613251718212</v>
       </c>
       <c r="C8">
-        <v>-0.01226664538036328</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.007694034242473974</v>
+      </c>
+      <c r="D8">
+        <v>0.02043118186154668</v>
+      </c>
+      <c r="E8">
+        <v>0.03490760054483977</v>
+      </c>
+      <c r="F8">
+        <v>0.04707642650502233</v>
+      </c>
+      <c r="G8">
+        <v>-0.04350563330948822</v>
+      </c>
+      <c r="H8">
+        <v>0.003618893351391324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06753494495020651</v>
+        <v>-0.07990431469676675</v>
       </c>
       <c r="C9">
-        <v>-0.04488826780643688</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.0294680025596346</v>
+      </c>
+      <c r="D9">
+        <v>0.06332984594418539</v>
+      </c>
+      <c r="E9">
+        <v>0.04121803100032456</v>
+      </c>
+      <c r="F9">
+        <v>0.02812923520935789</v>
+      </c>
+      <c r="G9">
+        <v>-0.00514523055518526</v>
+      </c>
+      <c r="H9">
+        <v>0.05304011283800723</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02889552435748497</v>
+        <v>-0.03457024716541941</v>
       </c>
       <c r="C10">
-        <v>-0.03444226702124549</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.04187986475832765</v>
+      </c>
+      <c r="D10">
+        <v>-0.1710657817782243</v>
+      </c>
+      <c r="E10">
+        <v>0.0538476362778017</v>
+      </c>
+      <c r="F10">
+        <v>0.04234598190059304</v>
+      </c>
+      <c r="G10">
+        <v>0.03988939529640561</v>
+      </c>
+      <c r="H10">
+        <v>-0.03561208485958214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.06996262707655282</v>
+        <v>-0.07623904650732061</v>
       </c>
       <c r="C11">
-        <v>-0.0476910515844761</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.02742588624222232</v>
+      </c>
+      <c r="D11">
+        <v>0.06301523549342108</v>
+      </c>
+      <c r="E11">
+        <v>0.001253340354529422</v>
+      </c>
+      <c r="F11">
+        <v>0.02256229647119211</v>
+      </c>
+      <c r="G11">
+        <v>0.008438620285485402</v>
+      </c>
+      <c r="H11">
+        <v>0.09844817963947056</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05745926077453531</v>
+        <v>-0.06699180423105799</v>
       </c>
       <c r="C12">
-        <v>-0.05143246112757447</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.03551567615298754</v>
+      </c>
+      <c r="D12">
+        <v>0.04874492923542202</v>
+      </c>
+      <c r="E12">
+        <v>0.01623721857283823</v>
+      </c>
+      <c r="F12">
+        <v>0.01535766884212195</v>
+      </c>
+      <c r="G12">
+        <v>0.003789073984829777</v>
+      </c>
+      <c r="H12">
+        <v>0.05541978751498913</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.05942605018137102</v>
+        <v>-0.06500588279005316</v>
       </c>
       <c r="C13">
-        <v>-0.0410835224752067</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.02499378157128981</v>
+      </c>
+      <c r="D13">
+        <v>0.0426001038136447</v>
+      </c>
+      <c r="E13">
+        <v>0.01513802339378223</v>
+      </c>
+      <c r="F13">
+        <v>0.0006172552806474776</v>
+      </c>
+      <c r="G13">
+        <v>0.005609575721716452</v>
+      </c>
+      <c r="H13">
+        <v>0.05106369198761825</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03223558865285541</v>
+        <v>-0.0412944807688148</v>
       </c>
       <c r="C14">
-        <v>-0.03188822011377075</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.02804519069940811</v>
+      </c>
+      <c r="D14">
+        <v>0.004447913208730764</v>
+      </c>
+      <c r="E14">
+        <v>0.03395628791823953</v>
+      </c>
+      <c r="F14">
+        <v>0.009613692387673452</v>
+      </c>
+      <c r="G14">
+        <v>-0.01027225766650431</v>
+      </c>
+      <c r="H14">
+        <v>0.05831204711294535</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.03866078097989372</v>
+        <v>-0.03979328221855313</v>
       </c>
       <c r="C15">
-        <v>-0.01011437693235086</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.002849110140767123</v>
+      </c>
+      <c r="D15">
+        <v>0.003505794309118661</v>
+      </c>
+      <c r="E15">
+        <v>0.04118928611207712</v>
+      </c>
+      <c r="F15">
+        <v>-0.008388712148723981</v>
+      </c>
+      <c r="G15">
+        <v>-0.02566407428512204</v>
+      </c>
+      <c r="H15">
+        <v>0.04070623513523306</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06059713212930821</v>
+        <v>-0.07031247111951092</v>
       </c>
       <c r="C16">
-        <v>-0.04310245505726418</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.02762892585930045</v>
+      </c>
+      <c r="D16">
+        <v>0.06259587836896173</v>
+      </c>
+      <c r="E16">
+        <v>0.009813577998257467</v>
+      </c>
+      <c r="F16">
+        <v>0.02061657175598008</v>
+      </c>
+      <c r="G16">
+        <v>0.007221179855325952</v>
+      </c>
+      <c r="H16">
+        <v>0.06151484395081201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06407707980616374</v>
+        <v>-0.06333674210637218</v>
       </c>
       <c r="C20">
-        <v>-0.03261876771908885</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.01370060165009128</v>
+      </c>
+      <c r="D20">
+        <v>0.0398831249738009</v>
+      </c>
+      <c r="E20">
+        <v>0.03491902010885285</v>
+      </c>
+      <c r="F20">
+        <v>0.01380250846996161</v>
+      </c>
+      <c r="G20">
+        <v>-0.009196399940401207</v>
+      </c>
+      <c r="H20">
+        <v>0.05421303425235836</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02358402674382247</v>
+        <v>-0.0241982829290434</v>
       </c>
       <c r="C21">
-        <v>0.002549259879278195</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.009609318419904297</v>
+      </c>
+      <c r="D21">
+        <v>0.02722458205151851</v>
+      </c>
+      <c r="E21">
+        <v>0.03920550135328724</v>
+      </c>
+      <c r="F21">
+        <v>-0.01528398445120242</v>
+      </c>
+      <c r="G21">
+        <v>-0.01212914083123516</v>
+      </c>
+      <c r="H21">
+        <v>-0.04365779706587998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07563105679345994</v>
+        <v>-0.07152895048300213</v>
       </c>
       <c r="C22">
-        <v>-0.05774691416382061</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.03657411295379472</v>
+      </c>
+      <c r="D22">
+        <v>0.06415042805638853</v>
+      </c>
+      <c r="E22">
+        <v>0.5518383169260482</v>
+      </c>
+      <c r="F22">
+        <v>-0.2711836016629188</v>
+      </c>
+      <c r="G22">
+        <v>0.05509649953942175</v>
+      </c>
+      <c r="H22">
+        <v>-0.1794640021277217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07662870789936196</v>
+        <v>-0.07214771620526052</v>
       </c>
       <c r="C23">
-        <v>-0.05667490417744478</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.03527009945746732</v>
+      </c>
+      <c r="D23">
+        <v>0.06510463020415976</v>
+      </c>
+      <c r="E23">
+        <v>0.551509151525857</v>
+      </c>
+      <c r="F23">
+        <v>-0.2700907904695442</v>
+      </c>
+      <c r="G23">
+        <v>0.05343945865018315</v>
+      </c>
+      <c r="H23">
+        <v>-0.1746460045668878</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07101432655512356</v>
+        <v>-0.08024680390967143</v>
       </c>
       <c r="C24">
-        <v>-0.05179514281043553</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.03342000047199191</v>
+      </c>
+      <c r="D24">
+        <v>0.05861555528308561</v>
+      </c>
+      <c r="E24">
+        <v>0.02131871385617642</v>
+      </c>
+      <c r="F24">
+        <v>0.03020142649494566</v>
+      </c>
+      <c r="G24">
+        <v>-0.002472284241791857</v>
+      </c>
+      <c r="H24">
+        <v>0.06947150279552776</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.0705340572715573</v>
+        <v>-0.07749764287546353</v>
       </c>
       <c r="C25">
-        <v>-0.05730510685870944</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.03805276865479733</v>
+      </c>
+      <c r="D25">
+        <v>0.05151256305154981</v>
+      </c>
+      <c r="E25">
+        <v>0.02292993474563742</v>
+      </c>
+      <c r="F25">
+        <v>0.02289222933192747</v>
+      </c>
+      <c r="G25">
+        <v>-0.01369636649711453</v>
+      </c>
+      <c r="H25">
+        <v>0.07075620152341033</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04435968251972358</v>
+        <v>-0.04716446541826829</v>
       </c>
       <c r="C26">
-        <v>-0.009942361875298004</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.001642009598742283</v>
+      </c>
+      <c r="D26">
+        <v>0.01733487728764389</v>
+      </c>
+      <c r="E26">
+        <v>0.05454189286848506</v>
+      </c>
+      <c r="F26">
+        <v>0.01702316695917552</v>
+      </c>
+      <c r="G26">
+        <v>0.007171666434349898</v>
+      </c>
+      <c r="H26">
+        <v>0.06041301186818313</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05240853161197173</v>
+        <v>-0.062006079670607</v>
       </c>
       <c r="C28">
-        <v>-0.07428100344114351</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.08354599183294981</v>
+      </c>
+      <c r="D28">
+        <v>-0.3073574627535653</v>
+      </c>
+      <c r="E28">
+        <v>0.02921820335128891</v>
+      </c>
+      <c r="F28">
+        <v>0.05453009198197161</v>
+      </c>
+      <c r="G28">
+        <v>-0.03006085762879385</v>
+      </c>
+      <c r="H28">
+        <v>-0.03959744014402359</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04050675465956902</v>
+        <v>-0.04851109008886369</v>
       </c>
       <c r="C29">
-        <v>-0.03228968009212204</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.02596372581262974</v>
+      </c>
+      <c r="D29">
+        <v>0.004428150780339851</v>
+      </c>
+      <c r="E29">
+        <v>0.05722349641604915</v>
+      </c>
+      <c r="F29">
+        <v>-0.003894086514661814</v>
+      </c>
+      <c r="G29">
+        <v>0.007339119395697698</v>
+      </c>
+      <c r="H29">
+        <v>0.08623784149735285</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1270153053506722</v>
+        <v>-0.132644762009228</v>
       </c>
       <c r="C30">
-        <v>-0.09568718798478798</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.06360456910314678</v>
+      </c>
+      <c r="D30">
+        <v>0.06975678813917346</v>
+      </c>
+      <c r="E30">
+        <v>0.08348385878428202</v>
+      </c>
+      <c r="F30">
+        <v>-0.02731424098622687</v>
+      </c>
+      <c r="G30">
+        <v>-0.06861578155499742</v>
+      </c>
+      <c r="H30">
+        <v>-0.02699328904561002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04255712924333981</v>
+        <v>-0.04903154334551151</v>
       </c>
       <c r="C31">
-        <v>-0.02085983131824584</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01264349755325061</v>
+      </c>
+      <c r="D31">
+        <v>0.02474262243214869</v>
+      </c>
+      <c r="E31">
+        <v>0.03087636632519924</v>
+      </c>
+      <c r="F31">
+        <v>0.0065547382148746</v>
+      </c>
+      <c r="G31">
+        <v>0.02622002690157541</v>
+      </c>
+      <c r="H31">
+        <v>0.06518398655999599</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03587297379302309</v>
+        <v>-0.038690051723393</v>
       </c>
       <c r="C32">
-        <v>-0.02204762117988352</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.01599956726420332</v>
+      </c>
+      <c r="D32">
+        <v>0.01081919327403731</v>
+      </c>
+      <c r="E32">
+        <v>0.06763016444587887</v>
+      </c>
+      <c r="F32">
+        <v>-0.02260184616887516</v>
+      </c>
+      <c r="G32">
+        <v>-0.03143821939891161</v>
+      </c>
+      <c r="H32">
+        <v>0.06385255243260005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08172054578996696</v>
+        <v>-0.09531838700126685</v>
       </c>
       <c r="C33">
-        <v>-0.04478241007856276</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.02644716485730433</v>
+      </c>
+      <c r="D33">
+        <v>0.04983695545046726</v>
+      </c>
+      <c r="E33">
+        <v>0.01590106814048356</v>
+      </c>
+      <c r="F33">
+        <v>-0.001544554252982409</v>
+      </c>
+      <c r="G33">
+        <v>0.01238300102405811</v>
+      </c>
+      <c r="H33">
+        <v>0.07389492988774693</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05597344713134653</v>
+        <v>-0.06209348523113536</v>
       </c>
       <c r="C34">
-        <v>-0.02900192504493396</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01332614262232481</v>
+      </c>
+      <c r="D34">
+        <v>0.05391822202651757</v>
+      </c>
+      <c r="E34">
+        <v>0.01225093195388238</v>
+      </c>
+      <c r="F34">
+        <v>0.0136197008932547</v>
+      </c>
+      <c r="G34">
+        <v>-0.003509555893914126</v>
+      </c>
+      <c r="H34">
+        <v>0.061072019355266</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03663750280796066</v>
+        <v>-0.04005415293002237</v>
       </c>
       <c r="C35">
-        <v>-0.008568460081206807</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.002162456837739176</v>
+      </c>
+      <c r="D35">
+        <v>0.006267718445398867</v>
+      </c>
+      <c r="E35">
+        <v>0.01776351984388967</v>
+      </c>
+      <c r="F35">
+        <v>-0.01714823402840394</v>
+      </c>
+      <c r="G35">
+        <v>0.01154073957176266</v>
+      </c>
+      <c r="H35">
+        <v>0.02854369777666719</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02035272012016811</v>
+        <v>-0.02700003719447796</v>
       </c>
       <c r="C36">
-        <v>-0.01744754886500127</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.01345190648539096</v>
+      </c>
+      <c r="D36">
+        <v>0.01198665198562258</v>
+      </c>
+      <c r="E36">
+        <v>0.04623247879349223</v>
+      </c>
+      <c r="F36">
+        <v>0.009707476326612723</v>
+      </c>
+      <c r="G36">
+        <v>0.0102342606207553</v>
+      </c>
+      <c r="H36">
+        <v>0.04790792862477263</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.0394206244527946</v>
+        <v>-0.04389988183154791</v>
       </c>
       <c r="C38">
-        <v>-0.002594377568861041</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.002668245709544801</v>
+      </c>
+      <c r="D38">
+        <v>0.0155246099112579</v>
+      </c>
+      <c r="E38">
+        <v>0.05513737248414202</v>
+      </c>
+      <c r="F38">
+        <v>-0.02005986677489124</v>
+      </c>
+      <c r="G38">
+        <v>-0.0128664787899003</v>
+      </c>
+      <c r="H38">
+        <v>0.02313978931784367</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.08977460280896774</v>
+        <v>-0.102212412502652</v>
       </c>
       <c r="C39">
-        <v>-0.0718028245617541</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.04924546875411639</v>
+      </c>
+      <c r="D39">
+        <v>0.06668796288272831</v>
+      </c>
+      <c r="E39">
+        <v>0.003191337987021374</v>
+      </c>
+      <c r="F39">
+        <v>0.005563713020852525</v>
+      </c>
+      <c r="G39">
+        <v>-0.0359510900450396</v>
+      </c>
+      <c r="H39">
+        <v>0.07463410303665205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07374495632241114</v>
+        <v>-0.07188569513715201</v>
       </c>
       <c r="C40">
-        <v>-0.04034662190511554</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.0189746871911165</v>
+      </c>
+      <c r="D40">
+        <v>0.01091297244606629</v>
+      </c>
+      <c r="E40">
+        <v>0.01688951634920435</v>
+      </c>
+      <c r="F40">
+        <v>-0.05502522057864179</v>
+      </c>
+      <c r="G40">
+        <v>-0.04348081967306763</v>
+      </c>
+      <c r="H40">
+        <v>-0.08927422713110772</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04083584230420755</v>
+        <v>-0.04385805069329</v>
       </c>
       <c r="C41">
-        <v>-0.006476142330361524</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.001617385919665933</v>
+      </c>
+      <c r="D41">
+        <v>0.03448239203343906</v>
+      </c>
+      <c r="E41">
+        <v>0.003150007217795616</v>
+      </c>
+      <c r="F41">
+        <v>-0.01723918884780982</v>
+      </c>
+      <c r="G41">
+        <v>-0.01077578431028762</v>
+      </c>
+      <c r="H41">
+        <v>0.03768596271128078</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04685241635804339</v>
+        <v>-0.05746070423346858</v>
       </c>
       <c r="C43">
-        <v>-0.02595506838254957</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.01685161702542007</v>
+      </c>
+      <c r="D43">
+        <v>0.02506715470993622</v>
+      </c>
+      <c r="E43">
+        <v>0.02162488611247832</v>
+      </c>
+      <c r="F43">
+        <v>0.008689945535746885</v>
+      </c>
+      <c r="G43">
+        <v>0.01427479812975087</v>
+      </c>
+      <c r="H43">
+        <v>0.05456945408153489</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09278747191008846</v>
+        <v>-0.09465924854571149</v>
       </c>
       <c r="C44">
-        <v>-0.09363846718712197</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.06419938825610293</v>
+      </c>
+      <c r="D44">
+        <v>0.05978719268004667</v>
+      </c>
+      <c r="E44">
+        <v>0.0985482006950157</v>
+      </c>
+      <c r="F44">
+        <v>0.03162770062402008</v>
+      </c>
+      <c r="G44">
+        <v>-0.02820951348532221</v>
+      </c>
+      <c r="H44">
+        <v>0.01535153364907639</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02527964328638815</v>
+        <v>-0.0330556440595537</v>
       </c>
       <c r="C46">
-        <v>-0.01416803176464806</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.01058271230051443</v>
+      </c>
+      <c r="D46">
+        <v>0.03043664405955198</v>
+      </c>
+      <c r="E46">
+        <v>0.03315896220104715</v>
+      </c>
+      <c r="F46">
+        <v>0.01317110749888166</v>
+      </c>
+      <c r="G46">
+        <v>-0.003418852062605526</v>
+      </c>
+      <c r="H46">
+        <v>0.04016246308275263</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.030450420824629</v>
+        <v>-0.03822372533502366</v>
       </c>
       <c r="C47">
-        <v>-0.02505397938948965</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.01970361004372317</v>
+      </c>
+      <c r="D47">
+        <v>0.009133428566106277</v>
+      </c>
+      <c r="E47">
+        <v>0.05155737868391917</v>
+      </c>
+      <c r="F47">
+        <v>0.004735105460318342</v>
+      </c>
+      <c r="G47">
+        <v>0.03788115460731645</v>
+      </c>
+      <c r="H47">
+        <v>0.02655092507627053</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03185296630469973</v>
+        <v>-0.03737133975715017</v>
       </c>
       <c r="C48">
-        <v>-0.01626866030081045</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.009393036070424488</v>
+      </c>
+      <c r="D48">
+        <v>0.01921426661140945</v>
+      </c>
+      <c r="E48">
+        <v>0.04387581956833556</v>
+      </c>
+      <c r="F48">
+        <v>-0.002692838702519723</v>
+      </c>
+      <c r="G48">
+        <v>-0.009472933991170071</v>
+      </c>
+      <c r="H48">
+        <v>0.05185085602716479</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1608232425814674</v>
+        <v>-0.1904020127914534</v>
       </c>
       <c r="C49">
-        <v>-0.06523703848363215</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.03572239048436778</v>
+      </c>
+      <c r="D49">
+        <v>0.03209612582378807</v>
+      </c>
+      <c r="E49">
+        <v>-0.1391669098144108</v>
+      </c>
+      <c r="F49">
+        <v>0.08212019224356661</v>
+      </c>
+      <c r="G49">
+        <v>0.0592294321189363</v>
+      </c>
+      <c r="H49">
+        <v>-0.2542797587686655</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03836596692853871</v>
+        <v>-0.04561902915814939</v>
       </c>
       <c r="C50">
-        <v>-0.02322490764526385</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.01607748766731355</v>
+      </c>
+      <c r="D50">
+        <v>0.0294582440669652</v>
+      </c>
+      <c r="E50">
+        <v>0.0550921215251464</v>
+      </c>
+      <c r="F50">
+        <v>0.005798213907819496</v>
+      </c>
+      <c r="G50">
+        <v>0.0215502275827381</v>
+      </c>
+      <c r="H50">
+        <v>0.06148271924307094</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02643395019264448</v>
+        <v>-0.02944404229031543</v>
       </c>
       <c r="C51">
-        <v>-0.008299769582304188</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.003696431895850463</v>
+      </c>
+      <c r="D51">
+        <v>0.01488464147677304</v>
+      </c>
+      <c r="E51">
+        <v>0.01702249999873517</v>
+      </c>
+      <c r="F51">
+        <v>0.01780828893476544</v>
+      </c>
+      <c r="G51">
+        <v>-0.003758557002051975</v>
+      </c>
+      <c r="H51">
+        <v>-0.003876272206189461</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1520329622660102</v>
+        <v>-0.162377021190229</v>
       </c>
       <c r="C53">
-        <v>-0.08313966400060711</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.05317232094533256</v>
+      </c>
+      <c r="D53">
+        <v>0.01818260143535181</v>
+      </c>
+      <c r="E53">
+        <v>-0.02277914203802987</v>
+      </c>
+      <c r="F53">
+        <v>0.01973282232866866</v>
+      </c>
+      <c r="G53">
+        <v>0.00659656472602661</v>
+      </c>
+      <c r="H53">
+        <v>0.1536764323425395</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05584356803242185</v>
+        <v>-0.05786878581229057</v>
       </c>
       <c r="C54">
-        <v>-0.02477101511766687</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01248474409278962</v>
+      </c>
+      <c r="D54">
+        <v>0.01563135224840891</v>
+      </c>
+      <c r="E54">
+        <v>0.05333820926697241</v>
+      </c>
+      <c r="F54">
+        <v>-0.0008720710071313927</v>
+      </c>
+      <c r="G54">
+        <v>-0.009425408839987071</v>
+      </c>
+      <c r="H54">
+        <v>0.0555192591993046</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1003075294156318</v>
+        <v>-0.1039386031791536</v>
       </c>
       <c r="C55">
-        <v>-0.05882321953604803</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.03671167726287142</v>
+      </c>
+      <c r="D55">
+        <v>0.02339217120238707</v>
+      </c>
+      <c r="E55">
+        <v>0.01989364657942351</v>
+      </c>
+      <c r="F55">
+        <v>0.01322295889664818</v>
+      </c>
+      <c r="G55">
+        <v>-0.0007570790177859838</v>
+      </c>
+      <c r="H55">
+        <v>0.1368674951473157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1466399246381735</v>
+        <v>-0.1599134940061674</v>
       </c>
       <c r="C56">
-        <v>-0.09460894354216839</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.06453420969701072</v>
+      </c>
+      <c r="D56">
+        <v>0.02051964444259789</v>
+      </c>
+      <c r="E56">
+        <v>-0.02046436519751713</v>
+      </c>
+      <c r="F56">
+        <v>0.03686685446842546</v>
+      </c>
+      <c r="G56">
+        <v>0.01433870015023574</v>
+      </c>
+      <c r="H56">
+        <v>0.1575043092912682</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1211283306874954</v>
+        <v>-0.09751807595276912</v>
       </c>
       <c r="C58">
-        <v>-0.006976797799940564</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.03388349545212482</v>
+      </c>
+      <c r="D58">
+        <v>0.03714573226827506</v>
+      </c>
+      <c r="E58">
+        <v>0.1645398483032322</v>
+      </c>
+      <c r="F58">
+        <v>-0.02813180218653102</v>
+      </c>
+      <c r="G58">
+        <v>0.06704717131349368</v>
+      </c>
+      <c r="H58">
+        <v>-0.2110234606136364</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1162281953927353</v>
+        <v>-0.1367299751348805</v>
       </c>
       <c r="C59">
-        <v>-0.08006262878912677</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.08612480720523366</v>
+      </c>
+      <c r="D59">
+        <v>-0.3656160186783656</v>
+      </c>
+      <c r="E59">
+        <v>0.02218823293493299</v>
+      </c>
+      <c r="F59">
+        <v>0.01992892011582992</v>
+      </c>
+      <c r="G59">
+        <v>0.04047040353091907</v>
+      </c>
+      <c r="H59">
+        <v>0.001294550114654071</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2031801823649942</v>
+        <v>-0.2324237555027656</v>
       </c>
       <c r="C60">
-        <v>-0.106855547262835</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.06886744824400752</v>
+      </c>
+      <c r="D60">
+        <v>0.03807616148461013</v>
+      </c>
+      <c r="E60">
+        <v>-0.08739274222916966</v>
+      </c>
+      <c r="F60">
+        <v>0.08252169898201174</v>
+      </c>
+      <c r="G60">
+        <v>-0.02669949255022187</v>
+      </c>
+      <c r="H60">
+        <v>-0.1805581011891894</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07861603012333489</v>
+        <v>-0.08789167934033783</v>
       </c>
       <c r="C61">
-        <v>-0.05125109813970194</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.03505289667685669</v>
+      </c>
+      <c r="D61">
+        <v>0.04387267520256798</v>
+      </c>
+      <c r="E61">
+        <v>0.0008491917085263873</v>
+      </c>
+      <c r="F61">
+        <v>0.003239878985131043</v>
+      </c>
+      <c r="G61">
+        <v>0.002079469135750026</v>
+      </c>
+      <c r="H61">
+        <v>0.07471869423764894</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1278149526772038</v>
+        <v>-0.1393301104739126</v>
       </c>
       <c r="C62">
-        <v>-0.06882171182864666</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.04247805682446813</v>
+      </c>
+      <c r="D62">
+        <v>0.02820650436726331</v>
+      </c>
+      <c r="E62">
+        <v>-0.0576763979641761</v>
+      </c>
+      <c r="F62">
+        <v>0.02274224312455614</v>
+      </c>
+      <c r="G62">
+        <v>-0.02424887940220672</v>
+      </c>
+      <c r="H62">
+        <v>0.1649503477337025</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05037674316362416</v>
+        <v>-0.05021293164358156</v>
       </c>
       <c r="C63">
-        <v>-0.0259894740396928</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.01388145030756967</v>
+      </c>
+      <c r="D63">
+        <v>0.01969440466387313</v>
+      </c>
+      <c r="E63">
+        <v>0.05245616438124428</v>
+      </c>
+      <c r="F63">
+        <v>-0.01722533425678751</v>
+      </c>
+      <c r="G63">
+        <v>-0.02758933803843733</v>
+      </c>
+      <c r="H63">
+        <v>0.05929193300711481</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1071046971945639</v>
+        <v>-0.1100610366385013</v>
       </c>
       <c r="C64">
-        <v>-0.02764453930419371</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.004873373510930297</v>
+      </c>
+      <c r="D64">
+        <v>0.03936914896687402</v>
+      </c>
+      <c r="E64">
+        <v>0.04832718313131354</v>
+      </c>
+      <c r="F64">
+        <v>0.03985226245539537</v>
+      </c>
+      <c r="G64">
+        <v>-0.0467493765233792</v>
+      </c>
+      <c r="H64">
+        <v>0.05892419239968248</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1203766362187674</v>
+        <v>-0.1272835819738194</v>
       </c>
       <c r="C65">
-        <v>-0.06255930875051705</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.03945595869675389</v>
+      </c>
+      <c r="D65">
+        <v>-0.0006681194776308055</v>
+      </c>
+      <c r="E65">
+        <v>0.01411443843177003</v>
+      </c>
+      <c r="F65">
+        <v>0.06671063017440161</v>
+      </c>
+      <c r="G65">
+        <v>-0.0603884895156506</v>
+      </c>
+      <c r="H65">
+        <v>-0.1236469416659594</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1411399817213483</v>
+        <v>-0.1538761731324425</v>
       </c>
       <c r="C66">
-        <v>-0.07733986702858885</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.04477489257714336</v>
+      </c>
+      <c r="D66">
+        <v>0.1021684375421628</v>
+      </c>
+      <c r="E66">
+        <v>-0.02477392764489475</v>
+      </c>
+      <c r="F66">
+        <v>0.01720897031140177</v>
+      </c>
+      <c r="G66">
+        <v>-0.04188794804889181</v>
+      </c>
+      <c r="H66">
+        <v>0.1539883099923985</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07193592353505011</v>
+        <v>-0.08324217114307549</v>
       </c>
       <c r="C67">
-        <v>-0.01436582093257938</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.004040660578356917</v>
+      </c>
+      <c r="D67">
+        <v>0.03003826172942043</v>
+      </c>
+      <c r="E67">
+        <v>0.02777413212535947</v>
+      </c>
+      <c r="F67">
+        <v>0.0117228883006052</v>
+      </c>
+      <c r="G67">
+        <v>0.006594459865362167</v>
+      </c>
+      <c r="H67">
+        <v>0.0244292241860785</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05831670147449075</v>
+        <v>-0.05802630929563478</v>
       </c>
       <c r="C68">
-        <v>-0.0510694151276018</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.05705486390031483</v>
+      </c>
+      <c r="D68">
+        <v>-0.2698611743740589</v>
+      </c>
+      <c r="E68">
+        <v>0.03679174012986516</v>
+      </c>
+      <c r="F68">
+        <v>0.01483541092075814</v>
+      </c>
+      <c r="G68">
+        <v>0.01599509695365722</v>
+      </c>
+      <c r="H68">
+        <v>0.007908913520807515</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05376637877766835</v>
+        <v>-0.0532454640565726</v>
       </c>
       <c r="C69">
-        <v>-0.01991797574425157</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.004958050141558723</v>
+      </c>
+      <c r="D69">
+        <v>0.01590477341188512</v>
+      </c>
+      <c r="E69">
+        <v>0.02447146547788659</v>
+      </c>
+      <c r="F69">
+        <v>-0.01050067060497821</v>
+      </c>
+      <c r="G69">
+        <v>0.01477177459901595</v>
+      </c>
+      <c r="H69">
+        <v>0.05400416145942614</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.005501455390167892</v>
+        <v>-0.02679527684699145</v>
       </c>
       <c r="C70">
-        <v>0.003949483536167318</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.0003787285267716209</v>
+      </c>
+      <c r="D70">
+        <v>0.001360634420454649</v>
+      </c>
+      <c r="E70">
+        <v>-0.02297674845502054</v>
+      </c>
+      <c r="F70">
+        <v>0.03140922809033397</v>
+      </c>
+      <c r="G70">
+        <v>0.01812554217408049</v>
+      </c>
+      <c r="H70">
+        <v>-0.04914720553605238</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.05793320712791598</v>
+        <v>-0.06034258218350561</v>
       </c>
       <c r="C71">
-        <v>-0.05043105384981789</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.05981684228041861</v>
+      </c>
+      <c r="D71">
+        <v>-0.2948922456758115</v>
+      </c>
+      <c r="E71">
+        <v>0.03526808501091071</v>
+      </c>
+      <c r="F71">
+        <v>0.04178604990107992</v>
+      </c>
+      <c r="G71">
+        <v>0.005773132760718479</v>
+      </c>
+      <c r="H71">
+        <v>0.01519121509059481</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1383898361974851</v>
+        <v>-0.1480054449165815</v>
       </c>
       <c r="C72">
-        <v>-0.06610072187259246</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.03760412670182432</v>
+      </c>
+      <c r="D72">
+        <v>-0.01204968686773686</v>
+      </c>
+      <c r="E72">
+        <v>-0.1285734371030117</v>
+      </c>
+      <c r="F72">
+        <v>-0.1465830979529292</v>
+      </c>
+      <c r="G72">
+        <v>-0.1123316718676121</v>
+      </c>
+      <c r="H72">
+        <v>0.02535495757371692</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2708975847400021</v>
+        <v>-0.2869871671045258</v>
       </c>
       <c r="C73">
-        <v>-0.1156583658610129</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.04739042522196432</v>
+      </c>
+      <c r="D73">
+        <v>0.1013070896494484</v>
+      </c>
+      <c r="E73">
+        <v>-0.2067380464517492</v>
+      </c>
+      <c r="F73">
+        <v>0.1312787574747555</v>
+      </c>
+      <c r="G73">
+        <v>0.1732638580652887</v>
+      </c>
+      <c r="H73">
+        <v>-0.4881762005843412</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07964895775784862</v>
+        <v>-0.09234429723630343</v>
       </c>
       <c r="C74">
-        <v>-0.07962764711015162</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.05961562639927302</v>
+      </c>
+      <c r="D74">
+        <v>0.03272331748930241</v>
+      </c>
+      <c r="E74">
+        <v>-0.004437691217594968</v>
+      </c>
+      <c r="F74">
+        <v>-0.009352515443933685</v>
+      </c>
+      <c r="G74">
+        <v>0.04233074703607036</v>
+      </c>
+      <c r="H74">
+        <v>0.1164587230197508</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09411838342322418</v>
+        <v>-0.09991390677114434</v>
       </c>
       <c r="C75">
-        <v>-0.05613389650854453</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.02930187955828263</v>
+      </c>
+      <c r="D75">
+        <v>0.01403648535392909</v>
+      </c>
+      <c r="E75">
+        <v>0.01164669034194354</v>
+      </c>
+      <c r="F75">
+        <v>0.02610019221439312</v>
+      </c>
+      <c r="G75">
+        <v>0.0172523557323399</v>
+      </c>
+      <c r="H75">
+        <v>0.1095409812360901</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1295802033985043</v>
+        <v>-0.1402212975834898</v>
       </c>
       <c r="C76">
-        <v>-0.08593587959882051</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.0565524751657205</v>
+      </c>
+      <c r="D76">
+        <v>0.04989905033110406</v>
+      </c>
+      <c r="E76">
+        <v>0.03653005825410047</v>
+      </c>
+      <c r="F76">
+        <v>0.04181985398435534</v>
+      </c>
+      <c r="G76">
+        <v>0.0026297075043496</v>
+      </c>
+      <c r="H76">
+        <v>0.1628930122652946</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1166479803895194</v>
+        <v>-0.1121649586163126</v>
       </c>
       <c r="C77">
-        <v>-0.02497063282179241</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.002248552941412046</v>
+      </c>
+      <c r="D77">
+        <v>0.01842523004832519</v>
+      </c>
+      <c r="E77">
+        <v>0.03468015484443564</v>
+      </c>
+      <c r="F77">
+        <v>0.1363558877103944</v>
+      </c>
+      <c r="G77">
+        <v>-0.8895361735720931</v>
+      </c>
+      <c r="H77">
+        <v>-0.1604257466389271</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.0990483945542904</v>
+        <v>-0.1381437904283515</v>
       </c>
       <c r="C78">
-        <v>-0.0407806131837953</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03210664975515693</v>
+      </c>
+      <c r="D78">
+        <v>0.091597227966074</v>
+      </c>
+      <c r="E78">
+        <v>0.0563585270202475</v>
+      </c>
+      <c r="F78">
+        <v>0.02551747505254994</v>
+      </c>
+      <c r="G78">
+        <v>-0.06532297977054136</v>
+      </c>
+      <c r="H78">
+        <v>-0.04439717448821405</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.146703926477216</v>
+        <v>-0.1522839919816014</v>
       </c>
       <c r="C79">
-        <v>-0.08247174662093258</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.04584372554030575</v>
+      </c>
+      <c r="D79">
+        <v>0.02679182262662647</v>
+      </c>
+      <c r="E79">
+        <v>-0.01135027186727278</v>
+      </c>
+      <c r="F79">
+        <v>0.0185566967559498</v>
+      </c>
+      <c r="G79">
+        <v>0.0221285186403404</v>
+      </c>
+      <c r="H79">
+        <v>0.1730951534589422</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04549772972327312</v>
+        <v>-0.04328117027520328</v>
       </c>
       <c r="C80">
-        <v>-0.01701543631189417</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.00620917584688608</v>
+      </c>
+      <c r="D80">
+        <v>0.01850180924482741</v>
+      </c>
+      <c r="E80">
+        <v>-0.00659707526969899</v>
+      </c>
+      <c r="F80">
+        <v>-0.005058095836565812</v>
+      </c>
+      <c r="G80">
+        <v>0.03482606327658665</v>
+      </c>
+      <c r="H80">
+        <v>0.04365287823784143</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1158438514520597</v>
+        <v>-0.1201230139886018</v>
       </c>
       <c r="C81">
-        <v>-0.06664303263408014</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.03693249756372186</v>
+      </c>
+      <c r="D81">
+        <v>0.0234643784299782</v>
+      </c>
+      <c r="E81">
+        <v>0.0291851586429441</v>
+      </c>
+      <c r="F81">
+        <v>0.009318169053828948</v>
+      </c>
+      <c r="G81">
+        <v>0.04995859747505504</v>
+      </c>
+      <c r="H81">
+        <v>0.1486627240324514</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1299632324211413</v>
+        <v>-0.1310152693913923</v>
       </c>
       <c r="C82">
-        <v>-0.08095358749351707</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.04880963360102729</v>
+      </c>
+      <c r="D82">
+        <v>0.02713427281781543</v>
+      </c>
+      <c r="E82">
+        <v>-0.007187201639500195</v>
+      </c>
+      <c r="F82">
+        <v>0.05838025057322552</v>
+      </c>
+      <c r="G82">
+        <v>0.03783561076167163</v>
+      </c>
+      <c r="H82">
+        <v>0.1983894772758246</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.08171743595940423</v>
+        <v>-0.08957960166748832</v>
       </c>
       <c r="C83">
-        <v>0.002200845426507927</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.02043801661226283</v>
+      </c>
+      <c r="D83">
+        <v>0.03553229325513007</v>
+      </c>
+      <c r="E83">
+        <v>0.02298980212680542</v>
+      </c>
+      <c r="F83">
+        <v>0.05157021151715639</v>
+      </c>
+      <c r="G83">
+        <v>0.07879443477355083</v>
+      </c>
+      <c r="H83">
+        <v>-0.04634411521055383</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02893736125392483</v>
+        <v>-0.03781381374011561</v>
       </c>
       <c r="C84">
-        <v>-0.02541616031914594</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.01868249561742188</v>
+      </c>
+      <c r="D84">
+        <v>0.02891604664564359</v>
+      </c>
+      <c r="E84">
+        <v>0.01786061087226975</v>
+      </c>
+      <c r="F84">
+        <v>-0.05816303389701229</v>
+      </c>
+      <c r="G84">
+        <v>0.06115121478464186</v>
+      </c>
+      <c r="H84">
+        <v>0.01168622102927511</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1185673529386278</v>
+        <v>-0.1198582827006357</v>
       </c>
       <c r="C85">
-        <v>-0.0627927152654499</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.03154453725940169</v>
+      </c>
+      <c r="D85">
+        <v>0.02437124545837867</v>
+      </c>
+      <c r="E85">
+        <v>0.02468208285839576</v>
+      </c>
+      <c r="F85">
+        <v>0.03860151773679157</v>
+      </c>
+      <c r="G85">
+        <v>0.0186038142245018</v>
+      </c>
+      <c r="H85">
+        <v>0.1482801119597869</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.04958088401605732</v>
+        <v>-0.05831718559235974</v>
       </c>
       <c r="C86">
-        <v>-0.03001274493930238</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.01889387925991688</v>
+      </c>
+      <c r="D86">
+        <v>0.02338607757415081</v>
+      </c>
+      <c r="E86">
+        <v>0.06682137279468413</v>
+      </c>
+      <c r="F86">
+        <v>0.02132248212035693</v>
+      </c>
+      <c r="G86">
+        <v>0.01799427717716551</v>
+      </c>
+      <c r="H86">
+        <v>-0.008978420813605496</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1212886456833322</v>
+        <v>-0.1222728046372407</v>
       </c>
       <c r="C87">
-        <v>-0.07095473635083478</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.03462686047769126</v>
+      </c>
+      <c r="D87">
+        <v>0.07585595673033772</v>
+      </c>
+      <c r="E87">
+        <v>0.02185072767392423</v>
+      </c>
+      <c r="F87">
+        <v>-0.008024345400707962</v>
+      </c>
+      <c r="G87">
+        <v>-0.1119835077220178</v>
+      </c>
+      <c r="H87">
+        <v>-0.02556229636551832</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05351276738574538</v>
+        <v>-0.06077955100497883</v>
       </c>
       <c r="C88">
-        <v>-0.03006842655347661</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.01860315749830794</v>
+      </c>
+      <c r="D88">
+        <v>0.02834378205919654</v>
+      </c>
+      <c r="E88">
+        <v>0.02201325827633311</v>
+      </c>
+      <c r="F88">
+        <v>0.005293071515440886</v>
+      </c>
+      <c r="G88">
+        <v>-0.008385591348148634</v>
+      </c>
+      <c r="H88">
+        <v>0.05578522058816294</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.07957369838438277</v>
+        <v>-0.09173694935947321</v>
       </c>
       <c r="C89">
-        <v>-0.06708259290420043</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.0779478658242663</v>
+      </c>
+      <c r="D89">
+        <v>-0.3424867703052955</v>
+      </c>
+      <c r="E89">
+        <v>0.07465983756754124</v>
+      </c>
+      <c r="F89">
+        <v>0.07800286640282024</v>
+      </c>
+      <c r="G89">
+        <v>0.02339994925883038</v>
+      </c>
+      <c r="H89">
+        <v>0.0068150302618244</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07243173229304666</v>
+        <v>-0.0788564030474634</v>
       </c>
       <c r="C90">
-        <v>-0.05969971632088068</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.06743407048986556</v>
+      </c>
+      <c r="D90">
+        <v>-0.3106119823183712</v>
+      </c>
+      <c r="E90">
+        <v>0.05980746102579479</v>
+      </c>
+      <c r="F90">
+        <v>-0.001654744253474806</v>
+      </c>
+      <c r="G90">
+        <v>0.004441974939879137</v>
+      </c>
+      <c r="H90">
+        <v>0.009636187650124339</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08464478511774838</v>
+        <v>-0.08965306178858688</v>
       </c>
       <c r="C91">
-        <v>-0.05589203151972236</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.03309569619717308</v>
+      </c>
+      <c r="D91">
+        <v>0.030823094949492</v>
+      </c>
+      <c r="E91">
+        <v>0.01564081615771918</v>
+      </c>
+      <c r="F91">
+        <v>0.002214955839527741</v>
+      </c>
+      <c r="G91">
+        <v>0.05436749992408405</v>
+      </c>
+      <c r="H91">
+        <v>0.07651723993622137</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07383731095124368</v>
+        <v>-0.07951980826684611</v>
       </c>
       <c r="C92">
-        <v>-0.07323971131373562</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.08122990277940198</v>
+      </c>
+      <c r="D92">
+        <v>-0.3415193051450361</v>
+      </c>
+      <c r="E92">
+        <v>0.04766457476494843</v>
+      </c>
+      <c r="F92">
+        <v>0.0372687068167656</v>
+      </c>
+      <c r="G92">
+        <v>-0.007115216551187507</v>
+      </c>
+      <c r="H92">
+        <v>0.02528114264961287</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06578199094914229</v>
+        <v>-0.07754744109263999</v>
       </c>
       <c r="C93">
-        <v>-0.06637183657392628</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.078742329353392</v>
+      </c>
+      <c r="D93">
+        <v>-0.3082135219098311</v>
+      </c>
+      <c r="E93">
+        <v>0.03873105651111017</v>
+      </c>
+      <c r="F93">
+        <v>0.04070181330787486</v>
+      </c>
+      <c r="G93">
+        <v>-0.009760187688058817</v>
+      </c>
+      <c r="H93">
+        <v>-0.006103886952000441</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1334449771637183</v>
+        <v>-0.1274613818521136</v>
       </c>
       <c r="C94">
-        <v>-0.06079555497963179</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.02233782804312285</v>
+      </c>
+      <c r="D94">
+        <v>0.04755728805209977</v>
+      </c>
+      <c r="E94">
+        <v>-0.001176142683175854</v>
+      </c>
+      <c r="F94">
+        <v>0.02011305190451612</v>
+      </c>
+      <c r="G94">
+        <v>0.05184677077943561</v>
+      </c>
+      <c r="H94">
+        <v>0.09678482763106212</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1188363140214238</v>
+        <v>-0.1293349866718015</v>
       </c>
       <c r="C95">
-        <v>-0.03703006955489329</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.008287269450808033</v>
+      </c>
+      <c r="D95">
+        <v>0.06112799738179434</v>
+      </c>
+      <c r="E95">
+        <v>0.01408408330864306</v>
+      </c>
+      <c r="F95">
+        <v>0.04726752034904804</v>
+      </c>
+      <c r="G95">
+        <v>0.01198013040844466</v>
+      </c>
+      <c r="H95">
+        <v>-0.02189025991632137</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2028979858814932</v>
+        <v>-0.2101433686653175</v>
       </c>
       <c r="C97">
-        <v>-0.04472649035820113</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.003902968871480331</v>
+      </c>
+      <c r="D97">
+        <v>-0.09573598113611985</v>
+      </c>
+      <c r="E97">
+        <v>-0.3714707202812534</v>
+      </c>
+      <c r="F97">
+        <v>-0.8409982979793491</v>
+      </c>
+      <c r="G97">
+        <v>-0.09695774370246536</v>
+      </c>
+      <c r="H97">
+        <v>0.00580483749961998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2443315987635313</v>
+        <v>-0.2750758524748818</v>
       </c>
       <c r="C98">
-        <v>-0.08165320464279763</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.03411599424324999</v>
+      </c>
+      <c r="D98">
+        <v>0.06121005191688679</v>
+      </c>
+      <c r="E98">
+        <v>-0.1637985799162128</v>
+      </c>
+      <c r="F98">
+        <v>0.09375935730897995</v>
+      </c>
+      <c r="G98">
+        <v>0.2574395314935304</v>
+      </c>
+      <c r="H98">
+        <v>-0.2292205233650136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4629921103932318</v>
+        <v>-0.2821764321989818</v>
       </c>
       <c r="C99">
-        <v>0.8710774793922328</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.9365375320613589</v>
+      </c>
+      <c r="D99">
+        <v>-0.1297942251298144</v>
+      </c>
+      <c r="E99">
+        <v>0.06587931639477507</v>
+      </c>
+      <c r="F99">
+        <v>0.04198266684281837</v>
+      </c>
+      <c r="G99">
+        <v>0.01450409601124855</v>
+      </c>
+      <c r="H99">
+        <v>0.06404810082972089</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04057375479301393</v>
+        <v>-0.04861177365897571</v>
       </c>
       <c r="C101">
-        <v>-0.0322791410978706</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.02604753564338881</v>
+      </c>
+      <c r="D101">
+        <v>0.004970318080943902</v>
+      </c>
+      <c r="E101">
+        <v>0.05624886965908502</v>
+      </c>
+      <c r="F101">
+        <v>-0.004296438411656284</v>
+      </c>
+      <c r="G101">
+        <v>0.007448960005338057</v>
+      </c>
+      <c r="H101">
+        <v>0.08553805256381806</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
